--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mif-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mif-Cxcr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.29761233333333</v>
+        <v>16.37389066666667</v>
       </c>
       <c r="H2">
-        <v>63.892837</v>
+        <v>49.121672</v>
       </c>
       <c r="I2">
-        <v>0.07945479053849795</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="J2">
-        <v>0.07945479053849797</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N2">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O2">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P2">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q2">
-        <v>0.4237869894127778</v>
+        <v>0.2193555552977778</v>
       </c>
       <c r="R2">
-        <v>3.814082904715</v>
+        <v>1.97419999768</v>
       </c>
       <c r="S2">
-        <v>0.0002605879607196055</v>
+        <v>0.007945282740232809</v>
       </c>
       <c r="T2">
-        <v>0.0002605879607196055</v>
+        <v>0.007945282740232807</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.29761233333333</v>
+        <v>16.37389066666667</v>
       </c>
       <c r="H3">
-        <v>63.892837</v>
+        <v>49.121672</v>
       </c>
       <c r="I3">
-        <v>0.07945479053849795</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="J3">
-        <v>0.07945479053849797</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N3">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O3">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P3">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q3">
-        <v>53.679630898387</v>
+        <v>2.064523836560889</v>
       </c>
       <c r="R3">
-        <v>483.1166780854831</v>
+        <v>18.580714529048</v>
       </c>
       <c r="S3">
-        <v>0.03300777489033983</v>
+        <v>0.07477916655978407</v>
       </c>
       <c r="T3">
-        <v>0.03300777489033983</v>
+        <v>0.07477916655978407</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.29761233333333</v>
+        <v>16.37389066666667</v>
       </c>
       <c r="H4">
-        <v>63.892837</v>
+        <v>49.121672</v>
       </c>
       <c r="I4">
-        <v>0.07945479053849795</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="J4">
-        <v>0.07945479053849797</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N4">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O4">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P4">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q4">
-        <v>75.1117092567889</v>
+        <v>0.32960641912</v>
       </c>
       <c r="R4">
-        <v>676.0053833111001</v>
+        <v>2.96645777208</v>
       </c>
       <c r="S4">
-        <v>0.04618642768743852</v>
+        <v>0.01193868187814529</v>
       </c>
       <c r="T4">
-        <v>0.04618642768743853</v>
+        <v>0.01193868187814529</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>217.624695</v>
       </c>
       <c r="I5">
-        <v>0.270630095158077</v>
+        <v>0.4193879037829277</v>
       </c>
       <c r="J5">
-        <v>0.2706300951580771</v>
+        <v>0.4193879037829278</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N5">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O5">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P5">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q5">
-        <v>1.443456240891667</v>
+        <v>0.9718151657833334</v>
       </c>
       <c r="R5">
-        <v>12.991106168025</v>
+        <v>8.74633649205</v>
       </c>
       <c r="S5">
-        <v>0.0008875858098502674</v>
+        <v>0.03520014003252839</v>
       </c>
       <c r="T5">
-        <v>0.0008875858098502677</v>
+        <v>0.03520014003252839</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>217.624695</v>
       </c>
       <c r="I6">
-        <v>0.270630095158077</v>
+        <v>0.4193879037829277</v>
       </c>
       <c r="J6">
-        <v>0.2706300951580771</v>
+        <v>0.4193879037829278</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N6">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O6">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P6">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q6">
-        <v>182.837605128945</v>
+        <v>9.146499945111668</v>
       </c>
       <c r="R6">
-        <v>1645.538446160506</v>
+        <v>82.31849950600501</v>
       </c>
       <c r="S6">
-        <v>0.1124274219211594</v>
+        <v>0.33129559016084</v>
       </c>
       <c r="T6">
-        <v>0.1124274219211594</v>
+        <v>0.33129559016084</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>217.624695</v>
       </c>
       <c r="I7">
-        <v>0.270630095158077</v>
+        <v>0.4193879037829277</v>
       </c>
       <c r="J7">
-        <v>0.2706300951580771</v>
+        <v>0.4193879037829278</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N7">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O7">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P7">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q7">
-        <v>255.8371733898334</v>
+        <v>1.46026170345</v>
       </c>
       <c r="R7">
-        <v>2302.5345605085</v>
+        <v>13.14235533105</v>
       </c>
       <c r="S7">
-        <v>0.1573150874270674</v>
+        <v>0.05289217358955933</v>
       </c>
       <c r="T7">
-        <v>0.1573150874270674</v>
+        <v>0.05289217358955934</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>71.11627966666667</v>
+        <v>26.10071233333333</v>
       </c>
       <c r="H8">
-        <v>213.348839</v>
+        <v>78.302137</v>
       </c>
       <c r="I8">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="J8">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N8">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O8">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P8">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q8">
-        <v>1.415095438233889</v>
+        <v>0.3496625428922222</v>
       </c>
       <c r="R8">
-        <v>12.735858944105</v>
+        <v>3.14696288603</v>
       </c>
       <c r="S8">
-        <v>0.0008701466625578928</v>
+        <v>0.0126651352101664</v>
       </c>
       <c r="T8">
-        <v>0.0008701466625578928</v>
+        <v>0.01266513521016639</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>71.11627966666667</v>
+        <v>26.10071233333333</v>
       </c>
       <c r="H9">
-        <v>213.348839</v>
+        <v>78.302137</v>
       </c>
       <c r="I9">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="J9">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N9">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O9">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P9">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q9">
-        <v>179.245240434689</v>
+        <v>3.290943115498111</v>
       </c>
       <c r="R9">
-        <v>1613.207163912201</v>
+        <v>29.618488039483</v>
       </c>
       <c r="S9">
-        <v>0.110218465503846</v>
+        <v>0.1192013281777141</v>
       </c>
       <c r="T9">
-        <v>0.110218465503846</v>
+        <v>0.1192013281777141</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>71.11627966666667</v>
+        <v>26.10071233333333</v>
       </c>
       <c r="H10">
-        <v>213.348839</v>
+        <v>78.302137</v>
       </c>
       <c r="I10">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="J10">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N10">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O10">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P10">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q10">
-        <v>250.8105245857445</v>
+        <v>0.5254073392699999</v>
       </c>
       <c r="R10">
-        <v>2257.2947212717</v>
+        <v>4.72866605343</v>
       </c>
       <c r="S10">
-        <v>0.1542241851723138</v>
+        <v>0.01903079162333786</v>
       </c>
       <c r="T10">
-        <v>0.1542241851723138</v>
+        <v>0.01903079162333786</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>56.240078</v>
+        <v>27.85999533333333</v>
       </c>
       <c r="H11">
-        <v>168.720234</v>
+        <v>83.57998600000001</v>
       </c>
       <c r="I11">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617304</v>
       </c>
       <c r="J11">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617305</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N11">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O11">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P11">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q11">
-        <v>1.119083818736667</v>
+        <v>0.3732310708155556</v>
       </c>
       <c r="R11">
-        <v>10.07175436863</v>
+        <v>3.35907963734</v>
       </c>
       <c r="S11">
-        <v>0.000688128181101031</v>
+        <v>0.01351881141575758</v>
       </c>
       <c r="T11">
-        <v>0.0006881281811010311</v>
+        <v>0.01351881141575758</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>56.240078</v>
+        <v>27.85999533333333</v>
       </c>
       <c r="H12">
-        <v>168.720234</v>
+        <v>83.57998600000001</v>
       </c>
       <c r="I12">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617304</v>
       </c>
       <c r="J12">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617305</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N12">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O12">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P12">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q12">
-        <v>141.750473315334</v>
+        <v>3.512764658263777</v>
       </c>
       <c r="R12">
-        <v>1275.754259838006</v>
+        <v>31.614881924374</v>
       </c>
       <c r="S12">
-        <v>0.0871628145627257</v>
+        <v>0.1272359315081625</v>
       </c>
       <c r="T12">
-        <v>0.08716281456272572</v>
+        <v>0.1272359315081625</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>56.240078</v>
+        <v>27.85999533333333</v>
       </c>
       <c r="H13">
-        <v>168.720234</v>
+        <v>83.57998600000001</v>
       </c>
       <c r="I13">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617304</v>
       </c>
       <c r="J13">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617305</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N13">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O13">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P13">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q13">
-        <v>198.3456324211334</v>
+        <v>0.5608217060599999</v>
       </c>
       <c r="R13">
-        <v>1785.1106917902</v>
+        <v>5.04739535454</v>
       </c>
       <c r="S13">
-        <v>0.1219633569730001</v>
+        <v>0.02031353623781041</v>
       </c>
       <c r="T13">
-        <v>0.1219633569730001</v>
+        <v>0.02031353623781042</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>46.85139066666667</v>
+        <v>30.09393033333333</v>
       </c>
       <c r="H14">
-        <v>140.554172</v>
+        <v>90.281791</v>
       </c>
       <c r="I14">
-        <v>0.1747880172478804</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="J14">
-        <v>0.1747880172478805</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N14">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O14">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P14">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q14">
-        <v>0.9322645886155556</v>
+        <v>0.4031583533655556</v>
       </c>
       <c r="R14">
-        <v>8.390381297540001</v>
+        <v>3.62842518029</v>
       </c>
       <c r="S14">
-        <v>0.0005732524453736915</v>
+        <v>0.01460280822260296</v>
       </c>
       <c r="T14">
-        <v>0.0005732524453736916</v>
+        <v>0.01460280822260296</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>46.85139066666667</v>
+        <v>30.09393033333333</v>
       </c>
       <c r="H15">
-        <v>140.554172</v>
+        <v>90.281791</v>
       </c>
       <c r="I15">
-        <v>0.1747880172478804</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="J15">
-        <v>0.1747880172478805</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N15">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O15">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P15">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q15">
-        <v>118.086728159972</v>
+        <v>3.794433331318777</v>
       </c>
       <c r="R15">
-        <v>1062.780553439748</v>
+        <v>34.149899981869</v>
       </c>
       <c r="S15">
-        <v>0.07261190279082622</v>
+        <v>0.1374382591558491</v>
       </c>
       <c r="T15">
-        <v>0.07261190279082623</v>
+        <v>0.1374382591558491</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>46.85139066666667</v>
+        <v>30.09393033333333</v>
       </c>
       <c r="H16">
-        <v>140.554172</v>
+        <v>90.281791</v>
       </c>
       <c r="I16">
-        <v>0.1747880172478804</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="J16">
-        <v>0.1747880172478805</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N16">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O16">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P16">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q16">
-        <v>165.2339228901778</v>
+        <v>0.60579081761</v>
       </c>
       <c r="R16">
-        <v>1487.1053060116</v>
+        <v>5.45211735849</v>
       </c>
       <c r="S16">
-        <v>0.1016028620116805</v>
+        <v>0.02194236348750915</v>
       </c>
       <c r="T16">
-        <v>0.1016028620116805</v>
+        <v>0.02194236348750915</v>
       </c>
     </row>
   </sheetData>
